--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl21b-Ccr7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,7 +88,13 @@
     <t>Ccr7</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +549,40 @@
         <v>0.379251</v>
       </c>
       <c r="I2">
-        <v>0.5842846710605375</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J2">
-        <v>0.6782743529807329</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.2289723333333333</v>
+        <v>0.191633</v>
       </c>
       <c r="N2">
-        <v>0.686917</v>
+        <v>0.383266</v>
       </c>
       <c r="O2">
-        <v>0.1806268377122885</v>
+        <v>0.2592126846256717</v>
       </c>
       <c r="P2">
-        <v>0.1806268377122885</v>
+        <v>0.1891519879500531</v>
       </c>
       <c r="Q2">
-        <v>0.028945995463</v>
+        <v>0.024225668961</v>
       </c>
       <c r="R2">
-        <v>0.260513959167</v>
+        <v>0.145354013766</v>
       </c>
       <c r="S2">
-        <v>0.1055374924574296</v>
+        <v>0.1900626407382565</v>
       </c>
       <c r="T2">
-        <v>0.1225145514802583</v>
+        <v>0.1522286580313718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,45 +611,45 @@
         <v>0.379251</v>
       </c>
       <c r="I3">
-        <v>0.5842846710605375</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J3">
-        <v>0.6782743529807329</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.038681666666667</v>
+        <v>0.1040336666666667</v>
       </c>
       <c r="N3">
-        <v>3.116045</v>
+        <v>0.312101</v>
       </c>
       <c r="O3">
-        <v>0.8193731622877115</v>
+        <v>0.140721305976105</v>
       </c>
       <c r="P3">
-        <v>0.8193731622877115</v>
+        <v>0.1540301633622589</v>
       </c>
       <c r="Q3">
-        <v>0.131307020255</v>
+        <v>0.013151624039</v>
       </c>
       <c r="R3">
-        <v>1.181763182295</v>
+        <v>0.118364616351</v>
       </c>
       <c r="S3">
-        <v>0.4787471786031079</v>
+        <v>0.1031811504926093</v>
       </c>
       <c r="T3">
-        <v>0.5557598015004745</v>
+        <v>0.1239627736356712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -652,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.089945</v>
+        <v>0.126417</v>
       </c>
       <c r="H4">
-        <v>0.17989</v>
+        <v>0.379251</v>
       </c>
       <c r="I4">
-        <v>0.4157153289394626</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J4">
-        <v>0.321725647019267</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +685,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2289723333333333</v>
+        <v>0.2501216666666666</v>
       </c>
       <c r="N4">
-        <v>0.686917</v>
+        <v>0.7503649999999999</v>
       </c>
       <c r="O4">
-        <v>0.1806268377122885</v>
+        <v>0.3383274733460001</v>
       </c>
       <c r="P4">
-        <v>0.1806268377122885</v>
+        <v>0.3703251304267574</v>
       </c>
       <c r="Q4">
-        <v>0.02059491652166667</v>
+        <v>0.03161963073499999</v>
       </c>
       <c r="R4">
-        <v>0.12356949913</v>
+        <v>0.284576676615</v>
       </c>
       <c r="S4">
-        <v>0.07508934525485893</v>
+        <v>0.2480720151149364</v>
       </c>
       <c r="T4">
-        <v>0.05811228623203015</v>
+        <v>0.2980359775813933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +720,303 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.089945</v>
+        <v>0.126417</v>
       </c>
       <c r="H5">
-        <v>0.17989</v>
+        <v>0.379251</v>
       </c>
       <c r="I5">
-        <v>0.4157153289394626</v>
+        <v>0.733230478333749</v>
       </c>
       <c r="J5">
-        <v>0.321725647019267</v>
+        <v>0.8047954435010685</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.038681666666667</v>
+        <v>0.1935003333333334</v>
       </c>
       <c r="N5">
-        <v>3.116045</v>
+        <v>0.580501</v>
       </c>
       <c r="O5">
-        <v>0.8193731622877115</v>
+        <v>0.2617385360522232</v>
       </c>
       <c r="P5">
-        <v>0.8193731622877115</v>
+        <v>0.2864927182609305</v>
       </c>
       <c r="Q5">
-        <v>0.09342422250833332</v>
+        <v>0.024461731639</v>
       </c>
       <c r="R5">
-        <v>0.5605453350499999</v>
+        <v>0.220155584751</v>
       </c>
       <c r="S5">
-        <v>0.3406259836846036</v>
+        <v>0.1919146719879468</v>
       </c>
       <c r="T5">
-        <v>0.2636133607872369</v>
+        <v>0.2305680342526323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.045994</v>
+      </c>
+      <c r="H6">
+        <v>0.091988</v>
+      </c>
+      <c r="I6">
+        <v>0.266769521666251</v>
+      </c>
+      <c r="J6">
+        <v>0.1952045564989315</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.191633</v>
+      </c>
+      <c r="N6">
+        <v>0.383266</v>
+      </c>
+      <c r="O6">
+        <v>0.2592126846256717</v>
+      </c>
+      <c r="P6">
+        <v>0.1891519879500531</v>
+      </c>
+      <c r="Q6">
+        <v>0.008813968202</v>
+      </c>
+      <c r="R6">
+        <v>0.035255872808</v>
+      </c>
+      <c r="S6">
+        <v>0.06915004388741522</v>
+      </c>
+      <c r="T6">
+        <v>0.03692332991868136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.045994</v>
+      </c>
+      <c r="H7">
+        <v>0.091988</v>
+      </c>
+      <c r="I7">
+        <v>0.266769521666251</v>
+      </c>
+      <c r="J7">
+        <v>0.1952045564989315</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1040336666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.312101</v>
+      </c>
+      <c r="O7">
+        <v>0.140721305976105</v>
+      </c>
+      <c r="P7">
+        <v>0.1540301633622589</v>
+      </c>
+      <c r="Q7">
+        <v>0.004784924464666667</v>
+      </c>
+      <c r="R7">
+        <v>0.028709546788</v>
+      </c>
+      <c r="S7">
+        <v>0.03754015548349567</v>
+      </c>
+      <c r="T7">
+        <v>0.03006738972658773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.045994</v>
+      </c>
+      <c r="H8">
+        <v>0.091988</v>
+      </c>
+      <c r="I8">
+        <v>0.266769521666251</v>
+      </c>
+      <c r="J8">
+        <v>0.1952045564989315</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.2501216666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.7503649999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.3383274733460001</v>
+      </c>
+      <c r="P8">
+        <v>0.3703251304267574</v>
+      </c>
+      <c r="Q8">
+        <v>0.01150409593666667</v>
+      </c>
+      <c r="R8">
+        <v>0.06902457562</v>
+      </c>
+      <c r="S8">
+        <v>0.09025545823106373</v>
+      </c>
+      <c r="T8">
+        <v>0.07228915284536416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.045994</v>
+      </c>
+      <c r="H9">
+        <v>0.091988</v>
+      </c>
+      <c r="I9">
+        <v>0.266769521666251</v>
+      </c>
+      <c r="J9">
+        <v>0.1952045564989315</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.1935003333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.580501</v>
+      </c>
+      <c r="O9">
+        <v>0.2617385360522232</v>
+      </c>
+      <c r="P9">
+        <v>0.2864927182609305</v>
+      </c>
+      <c r="Q9">
+        <v>0.008899854331333334</v>
+      </c>
+      <c r="R9">
+        <v>0.05339912598800001</v>
+      </c>
+      <c r="S9">
+        <v>0.06982386406427638</v>
+      </c>
+      <c r="T9">
+        <v>0.05592468400829829</v>
       </c>
     </row>
   </sheetData>
